--- a/Data/Sunny - POS+INV - March 2020.xlsx
+++ b/Data/Sunny - POS+INV - March 2020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC674D-6F49-4382-9C0E-AD2E7EF30935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="-17480" yWindow="-17570" windowWidth="17280" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020. 03. INVENTORY" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Distributor</t>
   </si>
@@ -168,42 +174,34 @@
   </si>
   <si>
     <t>SAMSUNG VD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020. 03. INVENTORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020. 03. POS DATA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\!\!\!\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\!\!\!\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\!\!\!\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\!\!\!\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -236,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -264,7 +262,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -546,21 +544,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -570,8 +563,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -719,227 +712,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
-    <cellStyle name="Comma [0]_ SG&amp;A Bridge " xfId="1"/>
-    <cellStyle name="Comma_ SG&amp;A Bridge " xfId="2"/>
-    <cellStyle name="Currency [0]_ SG&amp;A Bridge " xfId="3"/>
-    <cellStyle name="Currency_ SG&amp;A Bridge " xfId="4"/>
-    <cellStyle name="Header1" xfId="5"/>
-    <cellStyle name="Header2" xfId="6"/>
-    <cellStyle name="Normal_ SG&amp;A Bridge " xfId="7"/>
-    <cellStyle name="뒤에 오는 하이퍼링크" xfId="8"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="9"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="10"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="11"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="12"/>
-    <cellStyle name="쉼표 [0] 2" xfId="13"/>
-    <cellStyle name="콤마 [0]_(2000)11,12ATS-SCH" xfId="14"/>
-    <cellStyle name="콤마_(2000)11,12ATS-SCH" xfId="15"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="16"/>
-    <cellStyle name="표준 256" xfId="17"/>
-    <cellStyle name="표준 257" xfId="18"/>
-    <cellStyle name="표준 258" xfId="19"/>
-    <cellStyle name="표준 259" xfId="20"/>
-    <cellStyle name="표준 260" xfId="21"/>
-    <cellStyle name="표준 261" xfId="22"/>
-    <cellStyle name="표준 262" xfId="23"/>
-    <cellStyle name="표준 263" xfId="24"/>
-    <cellStyle name="표준 264" xfId="25"/>
-    <cellStyle name="표준 265" xfId="26"/>
-    <cellStyle name="표준 266" xfId="27"/>
-    <cellStyle name="표준 267" xfId="28"/>
-    <cellStyle name="표준 268" xfId="29"/>
-    <cellStyle name="표준 269" xfId="30"/>
-    <cellStyle name="표준 270" xfId="31"/>
-    <cellStyle name="표준 271" xfId="32"/>
-    <cellStyle name="표준 272" xfId="33"/>
-    <cellStyle name="표준 273" xfId="34"/>
-    <cellStyle name="표준 274" xfId="35"/>
-    <cellStyle name="표준 275" xfId="36"/>
-    <cellStyle name="표준 276" xfId="37"/>
-    <cellStyle name="표준 277" xfId="38"/>
-    <cellStyle name="표준 278" xfId="39"/>
-    <cellStyle name="표준 279" xfId="40"/>
-    <cellStyle name="표준 280" xfId="41"/>
-    <cellStyle name="표준 281" xfId="42"/>
-    <cellStyle name="표준 282" xfId="43"/>
-    <cellStyle name="표준 283" xfId="44"/>
-    <cellStyle name="표준 284" xfId="45"/>
-    <cellStyle name="표준 285" xfId="46"/>
-    <cellStyle name="표준 286" xfId="47"/>
-    <cellStyle name="표준 287" xfId="48"/>
-    <cellStyle name="표준 288" xfId="49"/>
-    <cellStyle name="표준 289" xfId="50"/>
-    <cellStyle name="표준 290" xfId="51"/>
-    <cellStyle name="표준 291" xfId="52"/>
-    <cellStyle name="표준 292" xfId="53"/>
-    <cellStyle name="표준 293" xfId="54"/>
-    <cellStyle name="표준 294" xfId="55"/>
-    <cellStyle name="표준 295" xfId="56"/>
-    <cellStyle name="표준 296" xfId="57"/>
-    <cellStyle name="표준 297" xfId="58"/>
-    <cellStyle name="표준 298" xfId="59"/>
-    <cellStyle name="표준 299" xfId="60"/>
-    <cellStyle name="표준 300" xfId="61"/>
-    <cellStyle name="표준 301" xfId="62"/>
-    <cellStyle name="표준 302" xfId="63"/>
+  <cellStyles count="59">
+    <cellStyle name="Header1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="뒤에 오는 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="콤마 [0]_(2000)11,12ATS-SCH" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="콤마_(2000)11,12ATS-SCH" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="표준 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="표준 256" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="표준 257" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="표준 258" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="표준 259" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="표준 260" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="표준 261" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="표준 262" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="표준 263" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="표준 264" xfId="20" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="표준 265" xfId="21" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="표준 266" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="표준 267" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="표준 268" xfId="24" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="표준 269" xfId="25" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="표준 270" xfId="26" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="표준 271" xfId="27" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="표준 272" xfId="28" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="표준 273" xfId="29" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="표준 274" xfId="30" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="표준 275" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="표준 276" xfId="32" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="표준 277" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="표준 278" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="표준 279" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="표준 280" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="표준 281" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="표준 282" xfId="38" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="표준 283" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="표준 284" xfId="40" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="표준 285" xfId="41" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="표준 286" xfId="42" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="표준 287" xfId="43" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="표준 288" xfId="44" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="표준 289" xfId="45" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="표준 290" xfId="46" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="표준 291" xfId="47" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="표준 292" xfId="48" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="표준 293" xfId="49" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="표준 294" xfId="50" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="표준 295" xfId="51" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="표준 296" xfId="52" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="표준 297" xfId="53" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="표준 298" xfId="54" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="표준 299" xfId="55" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="표준 300" xfId="56" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="표준 301" xfId="57" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="표준 302" xfId="58" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -981,7 +977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,9 +1009,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,6 +1061,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1222,284 +1254,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.89453125" customWidth="1"/>
+    <col min="2" max="2" width="29.62890625" customWidth="1"/>
+    <col min="3" max="3" width="13.1015625" customWidth="1"/>
+    <col min="4" max="4" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.734375" customWidth="1"/>
+    <col min="6" max="6" width="19.734375" customWidth="1"/>
+    <col min="7" max="7" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A1" t="s">
-        <v>45</v>
+    <row r="1" spans="1:9" ht="16.5">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+    <row r="3" spans="1:9" ht="16.8" thickBot="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>483950</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.191</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43836</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43829</v>
+      </c>
+      <c r="H4" s="7">
+        <v>19129449</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14">
-        <v>483950</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1005390</v>
+      </c>
+      <c r="D5" s="9">
         <v>0.191</v>
       </c>
-      <c r="E5" s="16">
-        <v>43836</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="10">
+        <v>43829</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16">
-        <v>43829</v>
-      </c>
-      <c r="H5" s="13">
-        <v>19129449</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="G5" s="10">
+        <v>43824</v>
+      </c>
+      <c r="H5" s="7">
+        <v>19129213</v>
+      </c>
+      <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1005390</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.191</v>
-      </c>
-      <c r="E6" s="16">
-        <v>43829</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="16">
-        <v>43824</v>
-      </c>
-      <c r="H6" s="13">
-        <v>19129213</v>
-      </c>
-      <c r="I6" s="17"/>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1960</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="17">
+        <v>43192</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="19">
+        <v>43189</v>
+      </c>
+      <c r="H6" s="14">
+        <v>190698726</v>
+      </c>
+      <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" s="27" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1960</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="23">
-        <v>43192</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="25">
-        <v>43189</v>
-      </c>
-      <c r="H7" s="20">
-        <v>190698726</v>
-      </c>
-      <c r="I7" s="26"/>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>357000</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43801</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="23">
+        <v>43797</v>
+      </c>
+      <c r="H7" s="7">
+        <v>19117950</v>
+      </c>
+      <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14">
-        <v>357000</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="E8" s="16">
-        <v>43801</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="29">
-        <v>43797</v>
-      </c>
-      <c r="H8" s="13">
-        <v>19117950</v>
-      </c>
-      <c r="I8" s="17"/>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.224</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43776</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="23">
+        <v>43773</v>
+      </c>
+      <c r="H8" s="7">
+        <v>19116958</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="8">
+        <v>2436000</v>
+      </c>
+      <c r="D9" s="9">
         <v>0.224</v>
       </c>
-      <c r="E9" s="16">
-        <v>43776</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="29">
-        <v>43773</v>
-      </c>
-      <c r="H9" s="13">
-        <v>19116958</v>
-      </c>
-      <c r="I9" s="17"/>
+      <c r="E9" s="10">
+        <v>43913</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="23">
+        <v>43910</v>
+      </c>
+      <c r="H9" s="7">
+        <v>20032342</v>
+      </c>
+      <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2436000</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.224</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>500</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43915</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="23">
         <v>43913</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="29">
-        <v>43910</v>
-      </c>
-      <c r="H10" s="13">
-        <v>20032342</v>
-      </c>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="14">
-        <v>500</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.42</v>
-      </c>
-      <c r="E11" s="16">
-        <v>43915</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="29">
-        <v>43913</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="H10" s="7">
         <v>20032552</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1508,341 +1535,336 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.1015625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A1" t="s">
-        <v>46</v>
+    <row r="1" spans="1:11" ht="16.8" thickBot="1">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>33</v>
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="46">
+        <v>33000</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="G2" s="48">
+        <v>0.191</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
+        <v>32811</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="41" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="36">
-        <v>33000</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
+      <c r="C4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="46">
+        <v>690100</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="48">
         <v>0.22</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G4" s="48">
         <v>0.191</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40">
-        <v>32811</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="40">
+        <v>29605</v>
+      </c>
+      <c r="K4" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43" t="s">
+    <row r="5" spans="1:11" s="28" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="43" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="41" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A5" s="33" t="s">
+    <row r="6" spans="1:11" s="28" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="36">
-        <v>690100</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38">
+      <c r="B6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="46">
+        <v>102000</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="48">
         <v>0.22</v>
       </c>
-      <c r="G5" s="38">
-        <v>0.191</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="40">
-        <v>29605</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>35</v>
+      <c r="H6" s="36"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="40">
+        <v>30524</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+    <row r="7" spans="1:11" s="28" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="43" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="36">
-        <v>102000</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38">
-        <v>0.26</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0.22</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="40">
-        <v>30524</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>37</v>
+      <c r="B8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="48">
+        <v>0.49</v>
+      </c>
+      <c r="G8" s="48">
+        <v>0.42</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="40">
+        <v>35581</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="43" t="s">
-        <v>36</v>
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="29" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="41" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A9" s="33" t="s">
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="36">
-        <v>500</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38">
-        <v>0.49</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0.42</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="40">
-        <v>35581</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>40</v>
+      <c r="B10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="46">
+        <v>270000</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10" s="48">
+        <v>0.224</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="40">
+        <v>33347</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="41" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="36">
-        <v>270000</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0.224</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="40">
-        <v>33347</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="41" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="43"/>
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1850,6 +1872,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100582A5FBFA93DF9489A12435AF256ADB9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfa6fa0815ed57b47ac13d2e737b4bd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84533548-6a3c-44ad-8013-e8e6b4295ee4" xmlns:ns3="9c0d39b0-f853-46d0-be1c-b75ead6e7377" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ea696491f0239e03270050306e9e5ed" ns2:_="" ns3:_="">
     <xsd:import namespace="84533548-6a3c-44ad-8013-e8e6b4295ee4"/>
@@ -2072,29 +2109,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15879807-BDF4-493C-8CC3-F2529E78FCD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69ADAD07-3FDF-4233-ABBB-4CBE8DC1DF0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB81628-22FD-43FB-870F-228FF31E02B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB81628-22FD-43FB-870F-228FF31E02B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69ADAD07-3FDF-4233-ABBB-4CBE8DC1DF0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15879807-BDF4-493C-8CC3-F2529E78FCD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84533548-6a3c-44ad-8013-e8e6b4295ee4"/>
+    <ds:schemaRef ds:uri="9c0d39b0-f853-46d0-be1c-b75ead6e7377"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>